--- a/data/Hospital Beds - Vish.xlsx
+++ b/data/Hospital Beds - Vish.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priyanka Kamath\OneDrive\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B8A29DB-815A-4831-80B0-7DA09A37B5B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DADD5B85-8445-41CD-8D6E-9433778EA27D}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Hospital Bed Links" sheetId="3" r:id="rId1"/>
     <sheet name="Delhi Beds" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="214">
   <si>
     <t>NOT WORKING</t>
   </si>
@@ -641,13 +635,49 @@
   </si>
   <si>
     <t>http://gujhealth.gujarat.gov.in/images/pdf/PVT-HOSPITAL-COVID-19-ISOLATON-BEDS.pdf</t>
+  </si>
+  <si>
+    <t>https://www.pcmcindia.gov.in/quicklinks.php?Link=7</t>
+  </si>
+  <si>
+    <t>PCMC, Maharashtra</t>
+  </si>
+  <si>
+    <t>PMC, Maharashtra</t>
+  </si>
+  <si>
+    <t>https://www.pmc.gov.in/en/hospital_list</t>
+  </si>
+  <si>
+    <t>https://www.pmc.gov.in/en/covid-vaccination-center-list</t>
+  </si>
+  <si>
+    <t>https://www.timesnownews.com/india/maharashtra-news/article/covid-19-vaccination-in-maharashtra-complete-list-of-govt-and-private-hospitals-to-get-inoculated/726351</t>
+  </si>
+  <si>
+    <t>COVID-19 vaccination in Maharashtra</t>
+  </si>
+  <si>
+    <t>https://imgk.timesnownews.com/media/CGHSEmphospitals_3_5.pdf</t>
+  </si>
+  <si>
+    <t>COVID-19 vaccination in Punjab</t>
+  </si>
+  <si>
+    <t>https://docttocare.com/readBlog/Covid-19-Hospitals-list/64</t>
+  </si>
+  <si>
+    <t>Covid -19 hospitals Punjab</t>
+  </si>
+  <si>
+    <t>Covid19 hospitals in karnataka</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1100,15 +1130,124 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
@@ -1119,13 +1258,13 @@
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
+      <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
+      <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
+      <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="18" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
@@ -1145,133 +1284,24 @@
     <xf numFmtId="16" fontId="4" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1579,35 +1609,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9497744-700E-41BE-8032-AE9D4A0FC38C}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="73.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="111" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:2" s="54" customFormat="1" ht="14.45">
+      <c r="A1" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="54" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="14.45">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -1615,7 +1645,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="14.45">
       <c r="A3" t="s">
         <v>196</v>
       </c>
@@ -1623,7 +1653,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="14.45">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -1631,7 +1661,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="14.45">
       <c r="A5" t="s">
         <v>199</v>
       </c>
@@ -1639,34 +1669,91 @@
         <v>198</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{C37CD853-BA4E-4352-A729-918C25421874}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0563DA-56C1-4AAA-8911-836E8F26815B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" customWidth="1"/>
-    <col min="6" max="6" width="25.6328125" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" customWidth="1"/>
-    <col min="9" max="9" width="25.36328125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" ht="14.45" customHeight="1" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1691,7 +1778,7 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" thickBot="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1725,7 +1812,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" thickBot="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1757,7 +1844,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" thickBot="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1787,7 +1874,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" ht="39.6" thickBot="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1833,7 +1920,7 @@
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
     </row>
-    <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" thickBot="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1875,7 +1962,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" thickBot="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1907,7 +1994,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" thickBot="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1943,7 +2030,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" thickBot="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1979,7 +2066,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" thickBot="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2021,7 +2108,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" thickBot="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2061,7 +2148,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" thickBot="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2103,7 +2190,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="139" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26" ht="138.94999999999999" thickBot="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2145,7 +2232,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:26" thickBot="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2183,28 +2270,28 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A16" s="55">
+    <row r="16" spans="1:26">
+      <c r="A16" s="58">
         <v>15</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="91" t="s">
         <v>89</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="100">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="103">
         <v>44306</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="70"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="55"/>
       <c r="J16" s="73"/>
       <c r="K16" s="73"/>
       <c r="L16" s="73"/>
@@ -2223,18 +2310,18 @@
       <c r="Y16" s="73"/>
       <c r="Z16" s="73"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="54"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="61"/>
+    <row r="17" spans="1:26">
+      <c r="A17" s="59"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="71"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="56"/>
       <c r="J17" s="74"/>
       <c r="K17" s="74"/>
       <c r="L17" s="74"/>
@@ -2253,18 +2340,18 @@
       <c r="Y17" s="74"/>
       <c r="Z17" s="74"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="61"/>
+    <row r="18" spans="1:26">
+      <c r="A18" s="59"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="92"/>
       <c r="D18" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="71"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="56"/>
       <c r="J18" s="74"/>
       <c r="K18" s="74"/>
       <c r="L18" s="74"/>
@@ -2283,18 +2370,18 @@
       <c r="Y18" s="74"/>
       <c r="Z18" s="74"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A19" s="54"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="61"/>
+    <row r="19" spans="1:26">
+      <c r="A19" s="59"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="71"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="74"/>
       <c r="K19" s="74"/>
       <c r="L19" s="74"/>
@@ -2313,18 +2400,18 @@
       <c r="Y19" s="74"/>
       <c r="Z19" s="74"/>
     </row>
-    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="56"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="62"/>
+    <row r="20" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A20" s="60"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="93"/>
       <c r="D20" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="65"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="72"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="57"/>
       <c r="J20" s="75"/>
       <c r="K20" s="75"/>
       <c r="L20" s="75"/>
@@ -2343,32 +2430,32 @@
       <c r="Y20" s="75"/>
       <c r="Z20" s="75"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A21" s="55">
+    <row r="21" spans="1:26">
+      <c r="A21" s="58">
         <v>16</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="76">
+      <c r="C21" s="97">
         <v>8800784476</v>
       </c>
       <c r="D21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="100">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F21" s="66">
+      <c r="F21" s="103">
         <v>44306</v>
       </c>
-      <c r="G21" s="76">
+      <c r="G21" s="97">
         <v>17</v>
       </c>
-      <c r="H21" s="79" t="s">
+      <c r="H21" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="82"/>
+      <c r="I21" s="109"/>
       <c r="J21" s="73"/>
       <c r="K21" s="73"/>
       <c r="L21" s="73"/>
@@ -2387,18 +2474,18 @@
       <c r="Y21" s="73"/>
       <c r="Z21" s="73"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A22" s="54"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="77"/>
+    <row r="22" spans="1:26">
+      <c r="A22" s="59"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="98"/>
       <c r="D22" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="69"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="110"/>
       <c r="J22" s="74"/>
       <c r="K22" s="74"/>
       <c r="L22" s="74"/>
@@ -2417,18 +2504,18 @@
       <c r="Y22" s="74"/>
       <c r="Z22" s="74"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A23" s="54"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="77"/>
+    <row r="23" spans="1:26">
+      <c r="A23" s="59"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="98"/>
       <c r="D23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="69"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="110"/>
       <c r="J23" s="74"/>
       <c r="K23" s="74"/>
       <c r="L23" s="74"/>
@@ -2447,18 +2534,18 @@
       <c r="Y23" s="74"/>
       <c r="Z23" s="74"/>
     </row>
-    <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="56"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="78"/>
+    <row r="24" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A24" s="60"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="99"/>
       <c r="D24" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="83"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="111"/>
       <c r="J24" s="75"/>
       <c r="K24" s="75"/>
       <c r="L24" s="75"/>
@@ -2477,30 +2564,30 @@
       <c r="Y24" s="75"/>
       <c r="Z24" s="75"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A25" s="55">
+    <row r="25" spans="1:26">
+      <c r="A25" s="58">
         <v>17</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="76">
+      <c r="C25" s="97">
         <v>8971172563</v>
       </c>
       <c r="D25" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="63">
+      <c r="E25" s="100">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F25" s="66">
+      <c r="F25" s="103">
         <v>44306</v>
       </c>
-      <c r="G25" s="76">
+      <c r="G25" s="97">
         <v>68</v>
       </c>
-      <c r="H25" s="60"/>
-      <c r="I25" s="70"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="55"/>
       <c r="J25" s="73"/>
       <c r="K25" s="73"/>
       <c r="L25" s="73"/>
@@ -2519,18 +2606,18 @@
       <c r="Y25" s="73"/>
       <c r="Z25" s="73"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A26" s="54"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="77"/>
+    <row r="26" spans="1:26">
+      <c r="A26" s="59"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="98"/>
       <c r="D26" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="71"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="56"/>
       <c r="J26" s="74"/>
       <c r="K26" s="74"/>
       <c r="L26" s="74"/>
@@ -2549,18 +2636,18 @@
       <c r="Y26" s="74"/>
       <c r="Z26" s="74"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A27" s="54"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="77"/>
+    <row r="27" spans="1:26">
+      <c r="A27" s="59"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="98"/>
       <c r="D27" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="71"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="56"/>
       <c r="J27" s="74"/>
       <c r="K27" s="74"/>
       <c r="L27" s="74"/>
@@ -2579,18 +2666,18 @@
       <c r="Y27" s="74"/>
       <c r="Z27" s="74"/>
     </row>
-    <row r="28" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="56"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="78"/>
+    <row r="28" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A28" s="60"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="99"/>
       <c r="D28" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="72"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="57"/>
       <c r="J28" s="75"/>
       <c r="K28" s="75"/>
       <c r="L28" s="75"/>
@@ -2609,24 +2696,24 @@
       <c r="Y28" s="75"/>
       <c r="Z28" s="75"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A29" s="55">
+    <row r="29" spans="1:26">
+      <c r="A29" s="58">
         <v>18</v>
       </c>
       <c r="B29" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="84">
+      <c r="C29" s="64">
         <v>9650832877</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="86">
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="70">
         <v>44306</v>
       </c>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
       <c r="J29" s="73"/>
       <c r="K29" s="73"/>
       <c r="L29" s="73"/>
@@ -2645,18 +2732,18 @@
       <c r="Y29" s="73"/>
       <c r="Z29" s="73"/>
     </row>
-    <row r="30" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="56"/>
+    <row r="30" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A30" s="60"/>
       <c r="B30" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
       <c r="J30" s="75"/>
       <c r="K30" s="75"/>
       <c r="L30" s="75"/>
@@ -2675,7 +2762,7 @@
       <c r="Y30" s="75"/>
       <c r="Z30" s="75"/>
     </row>
-    <row r="31" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:26" ht="15.75" thickBot="1">
       <c r="A31" s="4">
         <v>19</v>
       </c>
@@ -2713,28 +2800,28 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A32" s="55">
+    <row r="32" spans="1:26">
+      <c r="A32" s="58">
         <v>20</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="92">
+      <c r="C32" s="82">
         <v>9711621081</v>
       </c>
       <c r="D32" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="95"/>
-      <c r="F32" s="97">
+      <c r="E32" s="85"/>
+      <c r="F32" s="88">
         <v>44306</v>
       </c>
       <c r="G32" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
       <c r="J32" s="73"/>
       <c r="K32" s="73"/>
       <c r="L32" s="73"/>
@@ -2753,20 +2840,20 @@
       <c r="Y32" s="73"/>
       <c r="Z32" s="73"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A33" s="54"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="93"/>
+    <row r="33" spans="1:26">
+      <c r="A33" s="59"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="88"/>
-      <c r="F33" s="98"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="89"/>
       <c r="G33" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
       <c r="J33" s="74"/>
       <c r="K33" s="74"/>
       <c r="L33" s="74"/>
@@ -2785,20 +2872,20 @@
       <c r="Y33" s="74"/>
       <c r="Z33" s="74"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A34" s="54"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="93"/>
+    <row r="34" spans="1:26">
+      <c r="A34" s="59"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="83"/>
       <c r="D34" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="88"/>
-      <c r="F34" s="98"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="89"/>
       <c r="G34" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
       <c r="J34" s="74"/>
       <c r="K34" s="74"/>
       <c r="L34" s="74"/>
@@ -2817,18 +2904,18 @@
       <c r="Y34" s="74"/>
       <c r="Z34" s="74"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A35" s="54"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="93"/>
+    <row r="35" spans="1:26">
+      <c r="A35" s="59"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="83"/>
       <c r="D35" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="88"/>
-      <c r="F35" s="98"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="89"/>
       <c r="G35" s="40"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
       <c r="J35" s="74"/>
       <c r="K35" s="74"/>
       <c r="L35" s="74"/>
@@ -2847,18 +2934,18 @@
       <c r="Y35" s="74"/>
       <c r="Z35" s="74"/>
     </row>
-    <row r="36" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="56"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="94"/>
+    <row r="36" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A36" s="60"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="84"/>
       <c r="D36" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="96"/>
-      <c r="F36" s="99"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="90"/>
       <c r="G36" s="32"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="102"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
       <c r="J36" s="75"/>
       <c r="K36" s="75"/>
       <c r="L36" s="75"/>
@@ -2877,7 +2964,7 @@
       <c r="Y36" s="75"/>
       <c r="Z36" s="75"/>
     </row>
-    <row r="37" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:26" ht="15.75" thickBot="1">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -2919,7 +3006,7 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:26" ht="15.75" thickBot="1">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -2961,7 +3048,7 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:26" ht="15.75" thickBot="1">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -3003,7 +3090,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:26" ht="15.75" thickBot="1">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -3045,7 +3132,7 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:26" ht="15.75" thickBot="1">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -3087,7 +3174,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:26" ht="15.75" thickBot="1">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -3129,7 +3216,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:26" ht="15.75" thickBot="1">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -3165,7 +3252,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:26" ht="15.75" thickBot="1">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -3207,7 +3294,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:26" ht="15.75" thickBot="1">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -3249,7 +3336,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:26" ht="15.75" thickBot="1">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -3291,7 +3378,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:26" ht="15.75" thickBot="1">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -3327,7 +3414,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:26" ht="15.75" thickBot="1">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -3371,7 +3458,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:26" ht="15.75" thickBot="1">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -3413,7 +3500,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:26" ht="15.75" thickBot="1">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -3455,7 +3542,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:26" ht="15.75" thickBot="1">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -3491,7 +3578,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:26" ht="15.75" thickBot="1">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -3533,7 +3620,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:26" ht="15.75" thickBot="1">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -3575,7 +3662,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:26" ht="15.75" thickBot="1">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -3611,7 +3698,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:26" ht="15.75" thickBot="1">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -3647,7 +3734,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:26" ht="27" thickBot="1">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -3691,7 +3778,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:26" ht="15.75" thickBot="1">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -3731,7 +3818,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:26" ht="15.75" thickBot="1">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -3771,7 +3858,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:26" ht="15.75" thickBot="1">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -3813,7 +3900,7 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:26" ht="15.75" thickBot="1">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -3847,7 +3934,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:26" ht="15.75" thickBot="1">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -3887,7 +3974,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:26" ht="15.75" thickBot="1">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -3929,7 +4016,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:26" ht="15.75" thickBot="1">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -3973,7 +4060,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:26" ht="15.75" thickBot="1">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -4013,7 +4100,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:26" ht="15.75" thickBot="1">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -4055,7 +4142,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:26" ht="15.75" thickBot="1">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -4099,7 +4186,7 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:26" ht="15.75" thickBot="1">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -4139,7 +4226,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:26" ht="15.75" thickBot="1">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -4179,7 +4266,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:26" ht="15.75" thickBot="1">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -4223,7 +4310,7 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:26" ht="15.75" thickBot="1">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -4259,7 +4346,7 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:26" ht="15.75" thickBot="1">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -4301,7 +4388,7 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:26" ht="15.75" thickBot="1">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -4341,7 +4428,7 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:26" ht="15.75" thickBot="1">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -4383,7 +4470,7 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:26" ht="15.75" thickBot="1">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -4425,141 +4512,141 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A75" s="55">
+    <row r="75" spans="1:26">
+      <c r="A75" s="58">
         <v>59</v>
       </c>
-      <c r="B75" s="103" t="s">
+      <c r="B75" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="C75" s="84">
+      <c r="C75" s="64">
         <v>1125401075</v>
       </c>
       <c r="D75" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="E75" s="70" t="s">
+      <c r="E75" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="F75" s="86">
+      <c r="F75" s="70">
         <v>44306</v>
       </c>
-      <c r="G75" s="70" t="s">
+      <c r="G75" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="H75" s="70" t="s">
+      <c r="H75" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="I75" s="70"/>
-      <c r="J75" s="70"/>
-      <c r="K75" s="70"/>
-      <c r="L75" s="70"/>
-      <c r="M75" s="70"/>
-      <c r="N75" s="70"/>
-      <c r="O75" s="70"/>
-      <c r="P75" s="70"/>
-      <c r="Q75" s="70"/>
-      <c r="R75" s="70"/>
-      <c r="S75" s="70"/>
-      <c r="T75" s="70"/>
-      <c r="U75" s="70"/>
-      <c r="V75" s="70"/>
-      <c r="W75" s="70"/>
-      <c r="X75" s="70"/>
-      <c r="Y75" s="70"/>
-      <c r="Z75" s="70"/>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A76" s="54"/>
-      <c r="B76" s="104"/>
-      <c r="C76" s="106"/>
+      <c r="I75" s="55"/>
+      <c r="J75" s="55"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="55"/>
+      <c r="M75" s="55"/>
+      <c r="N75" s="55"/>
+      <c r="O75" s="55"/>
+      <c r="P75" s="55"/>
+      <c r="Q75" s="55"/>
+      <c r="R75" s="55"/>
+      <c r="S75" s="55"/>
+      <c r="T75" s="55"/>
+      <c r="U75" s="55"/>
+      <c r="V75" s="55"/>
+      <c r="W75" s="55"/>
+      <c r="X75" s="55"/>
+      <c r="Y75" s="55"/>
+      <c r="Z75" s="55"/>
+    </row>
+    <row r="76" spans="1:26">
+      <c r="A76" s="59"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="65"/>
       <c r="D76" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="E76" s="71"/>
-      <c r="F76" s="107"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="71"/>
-      <c r="L76" s="71"/>
-      <c r="M76" s="71"/>
-      <c r="N76" s="71"/>
-      <c r="O76" s="71"/>
-      <c r="P76" s="71"/>
-      <c r="Q76" s="71"/>
-      <c r="R76" s="71"/>
-      <c r="S76" s="71"/>
-      <c r="T76" s="71"/>
-      <c r="U76" s="71"/>
-      <c r="V76" s="71"/>
-      <c r="W76" s="71"/>
-      <c r="X76" s="71"/>
-      <c r="Y76" s="71"/>
-      <c r="Z76" s="71"/>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A77" s="54"/>
-      <c r="B77" s="104"/>
-      <c r="C77" s="106"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="56"/>
+      <c r="P76" s="56"/>
+      <c r="Q76" s="56"/>
+      <c r="R76" s="56"/>
+      <c r="S76" s="56"/>
+      <c r="T76" s="56"/>
+      <c r="U76" s="56"/>
+      <c r="V76" s="56"/>
+      <c r="W76" s="56"/>
+      <c r="X76" s="56"/>
+      <c r="Y76" s="56"/>
+      <c r="Z76" s="56"/>
+    </row>
+    <row r="77" spans="1:26">
+      <c r="A77" s="59"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="65"/>
       <c r="D77" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="E77" s="71"/>
-      <c r="F77" s="107"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="71"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="71"/>
-      <c r="L77" s="71"/>
-      <c r="M77" s="71"/>
-      <c r="N77" s="71"/>
-      <c r="O77" s="71"/>
-      <c r="P77" s="71"/>
-      <c r="Q77" s="71"/>
-      <c r="R77" s="71"/>
-      <c r="S77" s="71"/>
-      <c r="T77" s="71"/>
-      <c r="U77" s="71"/>
-      <c r="V77" s="71"/>
-      <c r="W77" s="71"/>
-      <c r="X77" s="71"/>
-      <c r="Y77" s="71"/>
-      <c r="Z77" s="71"/>
-    </row>
-    <row r="78" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="56"/>
-      <c r="B78" s="105"/>
-      <c r="C78" s="85"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="56"/>
+      <c r="M77" s="56"/>
+      <c r="N77" s="56"/>
+      <c r="O77" s="56"/>
+      <c r="P77" s="56"/>
+      <c r="Q77" s="56"/>
+      <c r="R77" s="56"/>
+      <c r="S77" s="56"/>
+      <c r="T77" s="56"/>
+      <c r="U77" s="56"/>
+      <c r="V77" s="56"/>
+      <c r="W77" s="56"/>
+      <c r="X77" s="56"/>
+      <c r="Y77" s="56"/>
+      <c r="Z77" s="56"/>
+    </row>
+    <row r="78" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A78" s="60"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="66"/>
       <c r="D78" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E78" s="72"/>
-      <c r="F78" s="87"/>
-      <c r="G78" s="72"/>
-      <c r="H78" s="72"/>
-      <c r="I78" s="72"/>
-      <c r="J78" s="72"/>
-      <c r="K78" s="72"/>
-      <c r="L78" s="72"/>
-      <c r="M78" s="72"/>
-      <c r="N78" s="72"/>
-      <c r="O78" s="72"/>
-      <c r="P78" s="72"/>
-      <c r="Q78" s="72"/>
-      <c r="R78" s="72"/>
-      <c r="S78" s="72"/>
-      <c r="T78" s="72"/>
-      <c r="U78" s="72"/>
-      <c r="V78" s="72"/>
-      <c r="W78" s="72"/>
-      <c r="X78" s="72"/>
-      <c r="Y78" s="72"/>
-      <c r="Z78" s="72"/>
-    </row>
-    <row r="79" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E78" s="57"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="57"/>
+      <c r="K78" s="57"/>
+      <c r="L78" s="57"/>
+      <c r="M78" s="57"/>
+      <c r="N78" s="57"/>
+      <c r="O78" s="57"/>
+      <c r="P78" s="57"/>
+      <c r="Q78" s="57"/>
+      <c r="R78" s="57"/>
+      <c r="S78" s="57"/>
+      <c r="T78" s="57"/>
+      <c r="U78" s="57"/>
+      <c r="V78" s="57"/>
+      <c r="W78" s="57"/>
+      <c r="X78" s="57"/>
+      <c r="Y78" s="57"/>
+      <c r="Z78" s="57"/>
+    </row>
+    <row r="79" spans="1:26" ht="15.75" thickBot="1">
       <c r="A79" s="4">
         <v>60</v>
       </c>
@@ -4601,7 +4688,7 @@
       <c r="Y79" s="13"/>
       <c r="Z79" s="13"/>
     </row>
-    <row r="80" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:26" ht="15.75" thickBot="1">
       <c r="A80" s="4">
         <v>61</v>
       </c>
@@ -4643,109 +4730,109 @@
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A81" s="55">
+    <row r="81" spans="1:26">
+      <c r="A81" s="58">
         <v>62</v>
       </c>
-      <c r="B81" s="103" t="s">
+      <c r="B81" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="C81" s="84">
+      <c r="C81" s="64">
         <v>1122152197</v>
       </c>
       <c r="D81" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="E81" s="108">
+      <c r="E81" s="67">
         <v>0.9375</v>
       </c>
-      <c r="F81" s="86">
+      <c r="F81" s="70">
         <v>44306</v>
       </c>
-      <c r="G81" s="70" t="s">
+      <c r="G81" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="H81" s="70"/>
-      <c r="I81" s="70"/>
-      <c r="J81" s="70"/>
-      <c r="K81" s="70"/>
-      <c r="L81" s="70"/>
-      <c r="M81" s="70"/>
-      <c r="N81" s="70"/>
-      <c r="O81" s="70"/>
-      <c r="P81" s="70"/>
-      <c r="Q81" s="70"/>
-      <c r="R81" s="70"/>
-      <c r="S81" s="70"/>
-      <c r="T81" s="70"/>
-      <c r="U81" s="70"/>
-      <c r="V81" s="70"/>
-      <c r="W81" s="70"/>
-      <c r="X81" s="70"/>
-      <c r="Y81" s="70"/>
-      <c r="Z81" s="70"/>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A82" s="54"/>
-      <c r="B82" s="104"/>
-      <c r="C82" s="106"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="55"/>
+      <c r="M81" s="55"/>
+      <c r="N81" s="55"/>
+      <c r="O81" s="55"/>
+      <c r="P81" s="55"/>
+      <c r="Q81" s="55"/>
+      <c r="R81" s="55"/>
+      <c r="S81" s="55"/>
+      <c r="T81" s="55"/>
+      <c r="U81" s="55"/>
+      <c r="V81" s="55"/>
+      <c r="W81" s="55"/>
+      <c r="X81" s="55"/>
+      <c r="Y81" s="55"/>
+      <c r="Z81" s="55"/>
+    </row>
+    <row r="82" spans="1:26">
+      <c r="A82" s="59"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="65"/>
       <c r="D82" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E82" s="109"/>
-      <c r="F82" s="107"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="71"/>
-      <c r="J82" s="71"/>
-      <c r="K82" s="71"/>
-      <c r="L82" s="71"/>
-      <c r="M82" s="71"/>
-      <c r="N82" s="71"/>
-      <c r="O82" s="71"/>
-      <c r="P82" s="71"/>
-      <c r="Q82" s="71"/>
-      <c r="R82" s="71"/>
-      <c r="S82" s="71"/>
-      <c r="T82" s="71"/>
-      <c r="U82" s="71"/>
-      <c r="V82" s="71"/>
-      <c r="W82" s="71"/>
-      <c r="X82" s="71"/>
-      <c r="Y82" s="71"/>
-      <c r="Z82" s="71"/>
-    </row>
-    <row r="83" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="56"/>
-      <c r="B83" s="105"/>
-      <c r="C83" s="85"/>
+      <c r="E82" s="68"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="56"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="56"/>
+      <c r="N82" s="56"/>
+      <c r="O82" s="56"/>
+      <c r="P82" s="56"/>
+      <c r="Q82" s="56"/>
+      <c r="R82" s="56"/>
+      <c r="S82" s="56"/>
+      <c r="T82" s="56"/>
+      <c r="U82" s="56"/>
+      <c r="V82" s="56"/>
+      <c r="W82" s="56"/>
+      <c r="X82" s="56"/>
+      <c r="Y82" s="56"/>
+      <c r="Z82" s="56"/>
+    </row>
+    <row r="83" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A83" s="60"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="66"/>
       <c r="D83" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E83" s="110"/>
-      <c r="F83" s="87"/>
-      <c r="G83" s="72"/>
-      <c r="H83" s="72"/>
-      <c r="I83" s="72"/>
-      <c r="J83" s="72"/>
-      <c r="K83" s="72"/>
-      <c r="L83" s="72"/>
-      <c r="M83" s="72"/>
-      <c r="N83" s="72"/>
-      <c r="O83" s="72"/>
-      <c r="P83" s="72"/>
-      <c r="Q83" s="72"/>
-      <c r="R83" s="72"/>
-      <c r="S83" s="72"/>
-      <c r="T83" s="72"/>
-      <c r="U83" s="72"/>
-      <c r="V83" s="72"/>
-      <c r="W83" s="72"/>
-      <c r="X83" s="72"/>
-      <c r="Y83" s="72"/>
-      <c r="Z83" s="72"/>
-    </row>
-    <row r="84" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E83" s="69"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="57"/>
+      <c r="K83" s="57"/>
+      <c r="L83" s="57"/>
+      <c r="M83" s="57"/>
+      <c r="N83" s="57"/>
+      <c r="O83" s="57"/>
+      <c r="P83" s="57"/>
+      <c r="Q83" s="57"/>
+      <c r="R83" s="57"/>
+      <c r="S83" s="57"/>
+      <c r="T83" s="57"/>
+      <c r="U83" s="57"/>
+      <c r="V83" s="57"/>
+      <c r="W83" s="57"/>
+      <c r="X83" s="57"/>
+      <c r="Y83" s="57"/>
+      <c r="Z83" s="57"/>
+    </row>
+    <row r="84" spans="1:26" ht="15.75" thickBot="1">
       <c r="A84" s="4">
         <v>63</v>
       </c>
@@ -4770,16 +4857,146 @@
     </row>
   </sheetData>
   <mergeCells count="174">
-    <mergeCell ref="W81:W83"/>
-    <mergeCell ref="X81:X83"/>
-    <mergeCell ref="Y81:Y83"/>
-    <mergeCell ref="Z81:Z83"/>
-    <mergeCell ref="Q81:Q83"/>
-    <mergeCell ref="R81:R83"/>
-    <mergeCell ref="S81:S83"/>
-    <mergeCell ref="T81:T83"/>
-    <mergeCell ref="U81:U83"/>
-    <mergeCell ref="V81:V83"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="L16:L20"/>
+    <mergeCell ref="M16:M20"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Z16:Z20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="T16:T20"/>
+    <mergeCell ref="U16:U20"/>
+    <mergeCell ref="V16:V20"/>
+    <mergeCell ref="W16:W20"/>
+    <mergeCell ref="X16:X20"/>
+    <mergeCell ref="Y16:Y20"/>
+    <mergeCell ref="N16:N20"/>
+    <mergeCell ref="O16:O20"/>
+    <mergeCell ref="P16:P20"/>
+    <mergeCell ref="Q16:Q20"/>
+    <mergeCell ref="R16:R20"/>
+    <mergeCell ref="S16:S20"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="M25:M28"/>
+    <mergeCell ref="W21:W24"/>
+    <mergeCell ref="X21:X24"/>
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="Z21:Z24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="Z25:Z28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="T25:T28"/>
+    <mergeCell ref="U25:U28"/>
+    <mergeCell ref="V25:V28"/>
+    <mergeCell ref="W25:W28"/>
+    <mergeCell ref="X25:X28"/>
+    <mergeCell ref="Y25:Y28"/>
+    <mergeCell ref="N25:N28"/>
+    <mergeCell ref="O25:O28"/>
+    <mergeCell ref="P25:P28"/>
+    <mergeCell ref="Q25:Q28"/>
+    <mergeCell ref="R25:R28"/>
+    <mergeCell ref="S25:S28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="X32:X36"/>
+    <mergeCell ref="Y32:Y36"/>
+    <mergeCell ref="Z32:Z36"/>
+    <mergeCell ref="O32:O36"/>
+    <mergeCell ref="P32:P36"/>
+    <mergeCell ref="Q32:Q36"/>
+    <mergeCell ref="R32:R36"/>
+    <mergeCell ref="S32:S36"/>
+    <mergeCell ref="T32:T36"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="G75:G78"/>
+    <mergeCell ref="U32:U36"/>
+    <mergeCell ref="V32:V36"/>
+    <mergeCell ref="W32:W36"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="K32:K36"/>
+    <mergeCell ref="L32:L36"/>
+    <mergeCell ref="M32:M36"/>
+    <mergeCell ref="N32:N36"/>
+    <mergeCell ref="P75:P78"/>
+    <mergeCell ref="Q75:Q78"/>
+    <mergeCell ref="R75:R78"/>
+    <mergeCell ref="S75:S78"/>
+    <mergeCell ref="H75:H78"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="K75:K78"/>
+    <mergeCell ref="L75:L78"/>
+    <mergeCell ref="M75:M78"/>
     <mergeCell ref="K81:K83"/>
     <mergeCell ref="L81:L83"/>
     <mergeCell ref="M81:M83"/>
@@ -4804,146 +5021,16 @@
     <mergeCell ref="Y75:Y78"/>
     <mergeCell ref="N75:N78"/>
     <mergeCell ref="O75:O78"/>
-    <mergeCell ref="P75:P78"/>
-    <mergeCell ref="Q75:Q78"/>
-    <mergeCell ref="R75:R78"/>
-    <mergeCell ref="S75:S78"/>
-    <mergeCell ref="H75:H78"/>
-    <mergeCell ref="I75:I78"/>
-    <mergeCell ref="J75:J78"/>
-    <mergeCell ref="K75:K78"/>
-    <mergeCell ref="L75:L78"/>
-    <mergeCell ref="M75:M78"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="G75:G78"/>
-    <mergeCell ref="U32:U36"/>
-    <mergeCell ref="V32:V36"/>
-    <mergeCell ref="W32:W36"/>
-    <mergeCell ref="X32:X36"/>
-    <mergeCell ref="Y32:Y36"/>
-    <mergeCell ref="Z32:Z36"/>
-    <mergeCell ref="O32:O36"/>
-    <mergeCell ref="P32:P36"/>
-    <mergeCell ref="Q32:Q36"/>
-    <mergeCell ref="R32:R36"/>
-    <mergeCell ref="S32:S36"/>
-    <mergeCell ref="T32:T36"/>
-    <mergeCell ref="I32:I36"/>
-    <mergeCell ref="J32:J36"/>
-    <mergeCell ref="K32:K36"/>
-    <mergeCell ref="L32:L36"/>
-    <mergeCell ref="M32:M36"/>
-    <mergeCell ref="N32:N36"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="H32:H36"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Z25:Z28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="T25:T28"/>
-    <mergeCell ref="U25:U28"/>
-    <mergeCell ref="V25:V28"/>
-    <mergeCell ref="W25:W28"/>
-    <mergeCell ref="X25:X28"/>
-    <mergeCell ref="Y25:Y28"/>
-    <mergeCell ref="N25:N28"/>
-    <mergeCell ref="O25:O28"/>
-    <mergeCell ref="P25:P28"/>
-    <mergeCell ref="Q25:Q28"/>
-    <mergeCell ref="R25:R28"/>
-    <mergeCell ref="S25:S28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="M25:M28"/>
-    <mergeCell ref="W21:W24"/>
-    <mergeCell ref="X21:X24"/>
-    <mergeCell ref="Y21:Y24"/>
-    <mergeCell ref="Z21:Z24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Z16:Z20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="T16:T20"/>
-    <mergeCell ref="U16:U20"/>
-    <mergeCell ref="V16:V20"/>
-    <mergeCell ref="W16:W20"/>
-    <mergeCell ref="X16:X20"/>
-    <mergeCell ref="Y16:Y20"/>
-    <mergeCell ref="N16:N20"/>
-    <mergeCell ref="O16:O20"/>
-    <mergeCell ref="P16:P20"/>
-    <mergeCell ref="Q16:Q20"/>
-    <mergeCell ref="R16:R20"/>
-    <mergeCell ref="S16:S20"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="I16:I20"/>
-    <mergeCell ref="J16:J20"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="L16:L20"/>
-    <mergeCell ref="M16:M20"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="W81:W83"/>
+    <mergeCell ref="X81:X83"/>
+    <mergeCell ref="Y81:Y83"/>
+    <mergeCell ref="Z81:Z83"/>
+    <mergeCell ref="Q81:Q83"/>
+    <mergeCell ref="R81:R83"/>
+    <mergeCell ref="S81:S83"/>
+    <mergeCell ref="T81:T83"/>
+    <mergeCell ref="U81:U83"/>
+    <mergeCell ref="V81:V83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/data/Hospital Beds - Vish.xlsx
+++ b/data/Hospital Beds - Vish.xlsx
@@ -1131,6 +1131,15 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
@@ -1140,6 +1149,15 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1149,6 +1167,117 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
@@ -1158,13 +1287,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="18" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1175,132 +1301,6 @@
     </xf>
     <xf numFmtId="18" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="4" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1609,7 +1609,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1620,7 +1620,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1629,7 +1629,7 @@
     <col min="2" max="2" width="73.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="54" customFormat="1" ht="14.45">
+    <row r="1" spans="1:2" s="54" customFormat="1">
       <c r="A1" s="54" t="s">
         <v>194</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.45">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.45">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>196</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.45">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.45">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>199</v>
       </c>
@@ -1778,7 +1778,7 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:26" thickBot="1">
+    <row r="3" spans="1:26" ht="15.75" thickBot="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1812,7 +1812,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" thickBot="1">
+    <row r="4" spans="1:26" ht="15.75" thickBot="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" thickBot="1">
+    <row r="5" spans="1:26" ht="15.75" thickBot="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1874,7 +1874,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="39.6" thickBot="1">
+    <row r="6" spans="1:26" ht="39" thickBot="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
     </row>
-    <row r="7" spans="1:26" thickBot="1">
+    <row r="7" spans="1:26" ht="15.75" thickBot="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1962,7 +1962,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" thickBot="1">
+    <row r="8" spans="1:26" ht="15.75" thickBot="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" thickBot="1">
+    <row r="9" spans="1:26" ht="15.75" thickBot="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2030,7 +2030,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" thickBot="1">
+    <row r="10" spans="1:26" ht="15.75" thickBot="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2066,7 +2066,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" thickBot="1">
+    <row r="11" spans="1:26" ht="15.75" thickBot="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2108,7 +2108,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" thickBot="1">
+    <row r="12" spans="1:26" ht="15.75" thickBot="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2148,7 +2148,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" thickBot="1">
+    <row r="13" spans="1:26" ht="15.75" thickBot="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="138.94999999999999" thickBot="1">
+    <row r="14" spans="1:26" ht="52.5" thickBot="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2232,7 +2232,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" thickBot="1">
+    <row r="15" spans="1:26" ht="15.75" thickBot="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2271,496 +2271,496 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="58">
+      <c r="A16" s="64">
         <v>15</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="55" t="s">
         <v>89</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="100">
+      <c r="E16" s="70">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F16" s="103">
+      <c r="F16" s="73">
         <v>44306</v>
       </c>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="59"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="92"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="101"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="74"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="59"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="92"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="101"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="74"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="59"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="92"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="101"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="74"/>
-      <c r="Y19" s="74"/>
-      <c r="Z19" s="74"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A20" s="60"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="93"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="102"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="75"/>
-      <c r="Y20" s="75"/>
-      <c r="Z20" s="75"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="58">
+      <c r="A21" s="64">
         <v>16</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="97">
+      <c r="C21" s="76">
         <v>8800784476</v>
       </c>
       <c r="D21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="100">
+      <c r="E21" s="70">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F21" s="103">
+      <c r="F21" s="73">
         <v>44306</v>
       </c>
-      <c r="G21" s="97">
+      <c r="G21" s="76">
         <v>17</v>
       </c>
-      <c r="H21" s="106" t="s">
+      <c r="H21" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="109"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="73"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="59"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="98"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="101"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="74"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="59"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="98"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="101"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74"/>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="74"/>
-      <c r="Z23" s="74"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A24" s="60"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="99"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="75"/>
-      <c r="T24" s="75"/>
-      <c r="U24" s="75"/>
-      <c r="V24" s="75"/>
-      <c r="W24" s="75"/>
-      <c r="X24" s="75"/>
-      <c r="Y24" s="75"/>
-      <c r="Z24" s="75"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="58">
+      <c r="A25" s="64">
         <v>17</v>
       </c>
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="97">
+      <c r="C25" s="76">
         <v>8971172563</v>
       </c>
       <c r="D25" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="100">
+      <c r="E25" s="70">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F25" s="103">
+      <c r="F25" s="73">
         <v>44306</v>
       </c>
-      <c r="G25" s="97">
+      <c r="G25" s="76">
         <v>68</v>
       </c>
-      <c r="H25" s="91"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="73"/>
-      <c r="Z25" s="73"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="61"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="59"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="98"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="101"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="74"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="74"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="74"/>
-      <c r="Y26" s="74"/>
-      <c r="Z26" s="74"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="59"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="98"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="101"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="74"/>
-      <c r="U27" s="74"/>
-      <c r="V27" s="74"/>
-      <c r="W27" s="74"/>
-      <c r="X27" s="74"/>
-      <c r="Y27" s="74"/>
-      <c r="Z27" s="74"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A28" s="60"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="99"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="75"/>
-      <c r="T28" s="75"/>
-      <c r="U28" s="75"/>
-      <c r="V28" s="75"/>
-      <c r="W28" s="75"/>
-      <c r="X28" s="75"/>
-      <c r="Y28" s="75"/>
-      <c r="Z28" s="75"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="58">
+      <c r="A29" s="64">
         <v>18</v>
       </c>
       <c r="B29" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="85">
         <v>9650832877</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="70">
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="87">
         <v>44306</v>
       </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
-      <c r="Z29" s="73"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="61"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A30" s="60"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="75"/>
-      <c r="U30" s="75"/>
-      <c r="V30" s="75"/>
-      <c r="W30" s="75"/>
-      <c r="X30" s="75"/>
-      <c r="Y30" s="75"/>
-      <c r="Z30" s="75"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="63"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" thickBot="1">
       <c r="A31" s="4">
@@ -2801,168 +2801,168 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="58">
+      <c r="A32" s="64">
         <v>20</v>
       </c>
-      <c r="B32" s="79" t="s">
+      <c r="B32" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="82">
+      <c r="C32" s="92">
         <v>9711621081</v>
       </c>
       <c r="D32" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="88">
+      <c r="E32" s="95"/>
+      <c r="F32" s="98">
         <v>44306</v>
       </c>
       <c r="G32" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="73"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="73"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="61"/>
+      <c r="W32" s="61"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="61"/>
+      <c r="Z32" s="61"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="59"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="83"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="93"/>
       <c r="D33" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="86"/>
-      <c r="F33" s="89"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="99"/>
       <c r="G33" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="74"/>
-      <c r="S33" s="74"/>
-      <c r="T33" s="74"/>
-      <c r="U33" s="74"/>
-      <c r="V33" s="74"/>
-      <c r="W33" s="74"/>
-      <c r="X33" s="74"/>
-      <c r="Y33" s="74"/>
-      <c r="Z33" s="74"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="59"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="83"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="86"/>
-      <c r="F34" s="89"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="99"/>
       <c r="G34" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="74"/>
-      <c r="R34" s="74"/>
-      <c r="S34" s="74"/>
-      <c r="T34" s="74"/>
-      <c r="U34" s="74"/>
-      <c r="V34" s="74"/>
-      <c r="W34" s="74"/>
-      <c r="X34" s="74"/>
-      <c r="Y34" s="74"/>
-      <c r="Z34" s="74"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="62"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="59"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="83"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="93"/>
       <c r="D35" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="86"/>
-      <c r="F35" s="89"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="99"/>
       <c r="G35" s="40"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="74"/>
-      <c r="T35" s="74"/>
-      <c r="U35" s="74"/>
-      <c r="V35" s="74"/>
-      <c r="W35" s="74"/>
-      <c r="X35" s="74"/>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="74"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A36" s="60"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="84"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="94"/>
       <c r="D36" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="87"/>
-      <c r="F36" s="90"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="100"/>
       <c r="G36" s="32"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="75"/>
-      <c r="R36" s="75"/>
-      <c r="S36" s="75"/>
-      <c r="T36" s="75"/>
-      <c r="U36" s="75"/>
-      <c r="V36" s="75"/>
-      <c r="W36" s="75"/>
-      <c r="X36" s="75"/>
-      <c r="Y36" s="75"/>
-      <c r="Z36" s="75"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="63"/>
+      <c r="Z36" s="63"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" thickBot="1">
       <c r="A37" s="4">
@@ -4513,138 +4513,138 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" spans="1:26">
-      <c r="A75" s="58">
+      <c r="A75" s="64">
         <v>59</v>
       </c>
-      <c r="B75" s="61" t="s">
+      <c r="B75" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="C75" s="64">
+      <c r="C75" s="85">
         <v>1125401075</v>
       </c>
       <c r="D75" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="E75" s="55" t="s">
+      <c r="E75" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="F75" s="70">
+      <c r="F75" s="87">
         <v>44306</v>
       </c>
-      <c r="G75" s="55" t="s">
+      <c r="G75" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="H75" s="55" t="s">
+      <c r="H75" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="I75" s="55"/>
-      <c r="J75" s="55"/>
-      <c r="K75" s="55"/>
-      <c r="L75" s="55"/>
-      <c r="M75" s="55"/>
-      <c r="N75" s="55"/>
-      <c r="O75" s="55"/>
-      <c r="P75" s="55"/>
-      <c r="Q75" s="55"/>
-      <c r="R75" s="55"/>
-      <c r="S75" s="55"/>
-      <c r="T75" s="55"/>
-      <c r="U75" s="55"/>
-      <c r="V75" s="55"/>
-      <c r="W75" s="55"/>
-      <c r="X75" s="55"/>
-      <c r="Y75" s="55"/>
-      <c r="Z75" s="55"/>
+      <c r="I75" s="58"/>
+      <c r="J75" s="58"/>
+      <c r="K75" s="58"/>
+      <c r="L75" s="58"/>
+      <c r="M75" s="58"/>
+      <c r="N75" s="58"/>
+      <c r="O75" s="58"/>
+      <c r="P75" s="58"/>
+      <c r="Q75" s="58"/>
+      <c r="R75" s="58"/>
+      <c r="S75" s="58"/>
+      <c r="T75" s="58"/>
+      <c r="U75" s="58"/>
+      <c r="V75" s="58"/>
+      <c r="W75" s="58"/>
+      <c r="X75" s="58"/>
+      <c r="Y75" s="58"/>
+      <c r="Z75" s="58"/>
     </row>
     <row r="76" spans="1:26">
-      <c r="A76" s="59"/>
-      <c r="B76" s="62"/>
-      <c r="C76" s="65"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="105"/>
+      <c r="C76" s="107"/>
       <c r="D76" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="E76" s="56"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="56"/>
-      <c r="K76" s="56"/>
-      <c r="L76" s="56"/>
-      <c r="M76" s="56"/>
-      <c r="N76" s="56"/>
-      <c r="O76" s="56"/>
-      <c r="P76" s="56"/>
-      <c r="Q76" s="56"/>
-      <c r="R76" s="56"/>
-      <c r="S76" s="56"/>
-      <c r="T76" s="56"/>
-      <c r="U76" s="56"/>
-      <c r="V76" s="56"/>
-      <c r="W76" s="56"/>
-      <c r="X76" s="56"/>
-      <c r="Y76" s="56"/>
-      <c r="Z76" s="56"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="108"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="59"/>
+      <c r="L76" s="59"/>
+      <c r="M76" s="59"/>
+      <c r="N76" s="59"/>
+      <c r="O76" s="59"/>
+      <c r="P76" s="59"/>
+      <c r="Q76" s="59"/>
+      <c r="R76" s="59"/>
+      <c r="S76" s="59"/>
+      <c r="T76" s="59"/>
+      <c r="U76" s="59"/>
+      <c r="V76" s="59"/>
+      <c r="W76" s="59"/>
+      <c r="X76" s="59"/>
+      <c r="Y76" s="59"/>
+      <c r="Z76" s="59"/>
     </row>
     <row r="77" spans="1:26">
-      <c r="A77" s="59"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="65"/>
+      <c r="A77" s="65"/>
+      <c r="B77" s="105"/>
+      <c r="C77" s="107"/>
       <c r="D77" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="E77" s="56"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="56"/>
-      <c r="K77" s="56"/>
-      <c r="L77" s="56"/>
-      <c r="M77" s="56"/>
-      <c r="N77" s="56"/>
-      <c r="O77" s="56"/>
-      <c r="P77" s="56"/>
-      <c r="Q77" s="56"/>
-      <c r="R77" s="56"/>
-      <c r="S77" s="56"/>
-      <c r="T77" s="56"/>
-      <c r="U77" s="56"/>
-      <c r="V77" s="56"/>
-      <c r="W77" s="56"/>
-      <c r="X77" s="56"/>
-      <c r="Y77" s="56"/>
-      <c r="Z77" s="56"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="108"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="59"/>
+      <c r="K77" s="59"/>
+      <c r="L77" s="59"/>
+      <c r="M77" s="59"/>
+      <c r="N77" s="59"/>
+      <c r="O77" s="59"/>
+      <c r="P77" s="59"/>
+      <c r="Q77" s="59"/>
+      <c r="R77" s="59"/>
+      <c r="S77" s="59"/>
+      <c r="T77" s="59"/>
+      <c r="U77" s="59"/>
+      <c r="V77" s="59"/>
+      <c r="W77" s="59"/>
+      <c r="X77" s="59"/>
+      <c r="Y77" s="59"/>
+      <c r="Z77" s="59"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A78" s="60"/>
-      <c r="B78" s="63"/>
-      <c r="C78" s="66"/>
+      <c r="A78" s="66"/>
+      <c r="B78" s="106"/>
+      <c r="C78" s="86"/>
       <c r="D78" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E78" s="57"/>
-      <c r="F78" s="72"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="57"/>
-      <c r="J78" s="57"/>
-      <c r="K78" s="57"/>
-      <c r="L78" s="57"/>
-      <c r="M78" s="57"/>
-      <c r="N78" s="57"/>
-      <c r="O78" s="57"/>
-      <c r="P78" s="57"/>
-      <c r="Q78" s="57"/>
-      <c r="R78" s="57"/>
-      <c r="S78" s="57"/>
-      <c r="T78" s="57"/>
-      <c r="U78" s="57"/>
-      <c r="V78" s="57"/>
-      <c r="W78" s="57"/>
-      <c r="X78" s="57"/>
-      <c r="Y78" s="57"/>
-      <c r="Z78" s="57"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="88"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="60"/>
+      <c r="J78" s="60"/>
+      <c r="K78" s="60"/>
+      <c r="L78" s="60"/>
+      <c r="M78" s="60"/>
+      <c r="N78" s="60"/>
+      <c r="O78" s="60"/>
+      <c r="P78" s="60"/>
+      <c r="Q78" s="60"/>
+      <c r="R78" s="60"/>
+      <c r="S78" s="60"/>
+      <c r="T78" s="60"/>
+      <c r="U78" s="60"/>
+      <c r="V78" s="60"/>
+      <c r="W78" s="60"/>
+      <c r="X78" s="60"/>
+      <c r="Y78" s="60"/>
+      <c r="Z78" s="60"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" thickBot="1">
       <c r="A79" s="4">
@@ -4731,106 +4731,106 @@
       <c r="Z80" s="13"/>
     </row>
     <row r="81" spans="1:26">
-      <c r="A81" s="58">
+      <c r="A81" s="64">
         <v>62</v>
       </c>
-      <c r="B81" s="61" t="s">
+      <c r="B81" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="C81" s="64">
+      <c r="C81" s="85">
         <v>1122152197</v>
       </c>
       <c r="D81" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="E81" s="67">
+      <c r="E81" s="109">
         <v>0.9375</v>
       </c>
-      <c r="F81" s="70">
+      <c r="F81" s="87">
         <v>44306</v>
       </c>
-      <c r="G81" s="55" t="s">
+      <c r="G81" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="H81" s="55"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="55"/>
-      <c r="K81" s="55"/>
-      <c r="L81" s="55"/>
-      <c r="M81" s="55"/>
-      <c r="N81" s="55"/>
-      <c r="O81" s="55"/>
-      <c r="P81" s="55"/>
-      <c r="Q81" s="55"/>
-      <c r="R81" s="55"/>
-      <c r="S81" s="55"/>
-      <c r="T81" s="55"/>
-      <c r="U81" s="55"/>
-      <c r="V81" s="55"/>
-      <c r="W81" s="55"/>
-      <c r="X81" s="55"/>
-      <c r="Y81" s="55"/>
-      <c r="Z81" s="55"/>
+      <c r="H81" s="58"/>
+      <c r="I81" s="58"/>
+      <c r="J81" s="58"/>
+      <c r="K81" s="58"/>
+      <c r="L81" s="58"/>
+      <c r="M81" s="58"/>
+      <c r="N81" s="58"/>
+      <c r="O81" s="58"/>
+      <c r="P81" s="58"/>
+      <c r="Q81" s="58"/>
+      <c r="R81" s="58"/>
+      <c r="S81" s="58"/>
+      <c r="T81" s="58"/>
+      <c r="U81" s="58"/>
+      <c r="V81" s="58"/>
+      <c r="W81" s="58"/>
+      <c r="X81" s="58"/>
+      <c r="Y81" s="58"/>
+      <c r="Z81" s="58"/>
     </row>
     <row r="82" spans="1:26">
-      <c r="A82" s="59"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="65"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="105"/>
+      <c r="C82" s="107"/>
       <c r="D82" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E82" s="68"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="56"/>
-      <c r="K82" s="56"/>
-      <c r="L82" s="56"/>
-      <c r="M82" s="56"/>
-      <c r="N82" s="56"/>
-      <c r="O82" s="56"/>
-      <c r="P82" s="56"/>
-      <c r="Q82" s="56"/>
-      <c r="R82" s="56"/>
-      <c r="S82" s="56"/>
-      <c r="T82" s="56"/>
-      <c r="U82" s="56"/>
-      <c r="V82" s="56"/>
-      <c r="W82" s="56"/>
-      <c r="X82" s="56"/>
-      <c r="Y82" s="56"/>
-      <c r="Z82" s="56"/>
+      <c r="E82" s="110"/>
+      <c r="F82" s="108"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="59"/>
+      <c r="J82" s="59"/>
+      <c r="K82" s="59"/>
+      <c r="L82" s="59"/>
+      <c r="M82" s="59"/>
+      <c r="N82" s="59"/>
+      <c r="O82" s="59"/>
+      <c r="P82" s="59"/>
+      <c r="Q82" s="59"/>
+      <c r="R82" s="59"/>
+      <c r="S82" s="59"/>
+      <c r="T82" s="59"/>
+      <c r="U82" s="59"/>
+      <c r="V82" s="59"/>
+      <c r="W82" s="59"/>
+      <c r="X82" s="59"/>
+      <c r="Y82" s="59"/>
+      <c r="Z82" s="59"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A83" s="60"/>
-      <c r="B83" s="63"/>
-      <c r="C83" s="66"/>
+      <c r="A83" s="66"/>
+      <c r="B83" s="106"/>
+      <c r="C83" s="86"/>
       <c r="D83" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E83" s="69"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="57"/>
-      <c r="H83" s="57"/>
-      <c r="I83" s="57"/>
-      <c r="J83" s="57"/>
-      <c r="K83" s="57"/>
-      <c r="L83" s="57"/>
-      <c r="M83" s="57"/>
-      <c r="N83" s="57"/>
-      <c r="O83" s="57"/>
-      <c r="P83" s="57"/>
-      <c r="Q83" s="57"/>
-      <c r="R83" s="57"/>
-      <c r="S83" s="57"/>
-      <c r="T83" s="57"/>
-      <c r="U83" s="57"/>
-      <c r="V83" s="57"/>
-      <c r="W83" s="57"/>
-      <c r="X83" s="57"/>
-      <c r="Y83" s="57"/>
-      <c r="Z83" s="57"/>
+      <c r="E83" s="111"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="60"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="60"/>
+      <c r="M83" s="60"/>
+      <c r="N83" s="60"/>
+      <c r="O83" s="60"/>
+      <c r="P83" s="60"/>
+      <c r="Q83" s="60"/>
+      <c r="R83" s="60"/>
+      <c r="S83" s="60"/>
+      <c r="T83" s="60"/>
+      <c r="U83" s="60"/>
+      <c r="V83" s="60"/>
+      <c r="W83" s="60"/>
+      <c r="X83" s="60"/>
+      <c r="Y83" s="60"/>
+      <c r="Z83" s="60"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" thickBot="1">
       <c r="A84" s="4">
@@ -4857,18 +4857,144 @@
     </row>
   </sheetData>
   <mergeCells count="174">
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="I16:I20"/>
-    <mergeCell ref="J16:J20"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="L16:L20"/>
-    <mergeCell ref="M16:M20"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="T81:T83"/>
+    <mergeCell ref="U81:U83"/>
+    <mergeCell ref="V81:V83"/>
+    <mergeCell ref="Z75:Z78"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="T75:T78"/>
+    <mergeCell ref="U75:U78"/>
+    <mergeCell ref="V75:V78"/>
+    <mergeCell ref="W75:W78"/>
+    <mergeCell ref="X75:X78"/>
+    <mergeCell ref="Y75:Y78"/>
+    <mergeCell ref="N75:N78"/>
+    <mergeCell ref="O75:O78"/>
+    <mergeCell ref="W81:W83"/>
+    <mergeCell ref="X81:X83"/>
+    <mergeCell ref="Y81:Y83"/>
+    <mergeCell ref="Z81:Z83"/>
+    <mergeCell ref="Q81:Q83"/>
+    <mergeCell ref="R81:R83"/>
+    <mergeCell ref="R75:R78"/>
+    <mergeCell ref="S75:S78"/>
+    <mergeCell ref="H75:H78"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="K75:K78"/>
+    <mergeCell ref="L75:L78"/>
+    <mergeCell ref="M75:M78"/>
+    <mergeCell ref="K81:K83"/>
+    <mergeCell ref="L81:L83"/>
+    <mergeCell ref="M81:M83"/>
+    <mergeCell ref="N81:N83"/>
+    <mergeCell ref="O81:O83"/>
+    <mergeCell ref="P81:P83"/>
+    <mergeCell ref="S81:S83"/>
+    <mergeCell ref="Z32:Z36"/>
+    <mergeCell ref="O32:O36"/>
+    <mergeCell ref="P32:P36"/>
+    <mergeCell ref="Q32:Q36"/>
+    <mergeCell ref="R32:R36"/>
+    <mergeCell ref="S32:S36"/>
+    <mergeCell ref="T32:T36"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="G75:G78"/>
+    <mergeCell ref="U32:U36"/>
+    <mergeCell ref="V32:V36"/>
+    <mergeCell ref="W32:W36"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="K32:K36"/>
+    <mergeCell ref="L32:L36"/>
+    <mergeCell ref="M32:M36"/>
+    <mergeCell ref="N32:N36"/>
+    <mergeCell ref="P75:P78"/>
+    <mergeCell ref="Q75:Q78"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="X32:X36"/>
+    <mergeCell ref="Y32:Y36"/>
+    <mergeCell ref="Z25:Z28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="T25:T28"/>
+    <mergeCell ref="U25:U28"/>
+    <mergeCell ref="V25:V28"/>
+    <mergeCell ref="W25:W28"/>
+    <mergeCell ref="X25:X28"/>
+    <mergeCell ref="Y25:Y28"/>
+    <mergeCell ref="N25:N28"/>
+    <mergeCell ref="O25:O28"/>
+    <mergeCell ref="P25:P28"/>
+    <mergeCell ref="Q25:Q28"/>
+    <mergeCell ref="R25:R28"/>
+    <mergeCell ref="S25:S28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="M25:M28"/>
+    <mergeCell ref="W21:W24"/>
+    <mergeCell ref="X21:X24"/>
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="Z21:Z24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
     <mergeCell ref="O21:O24"/>
     <mergeCell ref="P21:P24"/>
     <mergeCell ref="Z16:Z20"/>
@@ -4893,144 +5019,18 @@
     <mergeCell ref="Q16:Q20"/>
     <mergeCell ref="R16:R20"/>
     <mergeCell ref="S16:S20"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="M25:M28"/>
-    <mergeCell ref="W21:W24"/>
-    <mergeCell ref="X21:X24"/>
-    <mergeCell ref="Y21:Y24"/>
-    <mergeCell ref="Z21:Z24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="Z25:Z28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="T25:T28"/>
-    <mergeCell ref="U25:U28"/>
-    <mergeCell ref="V25:V28"/>
-    <mergeCell ref="W25:W28"/>
-    <mergeCell ref="X25:X28"/>
-    <mergeCell ref="Y25:Y28"/>
-    <mergeCell ref="N25:N28"/>
-    <mergeCell ref="O25:O28"/>
-    <mergeCell ref="P25:P28"/>
-    <mergeCell ref="Q25:Q28"/>
-    <mergeCell ref="R25:R28"/>
-    <mergeCell ref="S25:S28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="H32:H36"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="X32:X36"/>
-    <mergeCell ref="Y32:Y36"/>
-    <mergeCell ref="Z32:Z36"/>
-    <mergeCell ref="O32:O36"/>
-    <mergeCell ref="P32:P36"/>
-    <mergeCell ref="Q32:Q36"/>
-    <mergeCell ref="R32:R36"/>
-    <mergeCell ref="S32:S36"/>
-    <mergeCell ref="T32:T36"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="G75:G78"/>
-    <mergeCell ref="U32:U36"/>
-    <mergeCell ref="V32:V36"/>
-    <mergeCell ref="W32:W36"/>
-    <mergeCell ref="I32:I36"/>
-    <mergeCell ref="J32:J36"/>
-    <mergeCell ref="K32:K36"/>
-    <mergeCell ref="L32:L36"/>
-    <mergeCell ref="M32:M36"/>
-    <mergeCell ref="N32:N36"/>
-    <mergeCell ref="P75:P78"/>
-    <mergeCell ref="Q75:Q78"/>
-    <mergeCell ref="R75:R78"/>
-    <mergeCell ref="S75:S78"/>
-    <mergeCell ref="H75:H78"/>
-    <mergeCell ref="I75:I78"/>
-    <mergeCell ref="J75:J78"/>
-    <mergeCell ref="K75:K78"/>
-    <mergeCell ref="L75:L78"/>
-    <mergeCell ref="M75:M78"/>
-    <mergeCell ref="K81:K83"/>
-    <mergeCell ref="L81:L83"/>
-    <mergeCell ref="M81:M83"/>
-    <mergeCell ref="N81:N83"/>
-    <mergeCell ref="O81:O83"/>
-    <mergeCell ref="P81:P83"/>
-    <mergeCell ref="Z75:Z78"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="T75:T78"/>
-    <mergeCell ref="U75:U78"/>
-    <mergeCell ref="V75:V78"/>
-    <mergeCell ref="W75:W78"/>
-    <mergeCell ref="X75:X78"/>
-    <mergeCell ref="Y75:Y78"/>
-    <mergeCell ref="N75:N78"/>
-    <mergeCell ref="O75:O78"/>
-    <mergeCell ref="W81:W83"/>
-    <mergeCell ref="X81:X83"/>
-    <mergeCell ref="Y81:Y83"/>
-    <mergeCell ref="Z81:Z83"/>
-    <mergeCell ref="Q81:Q83"/>
-    <mergeCell ref="R81:R83"/>
-    <mergeCell ref="S81:S83"/>
-    <mergeCell ref="T81:T83"/>
-    <mergeCell ref="U81:U83"/>
-    <mergeCell ref="V81:V83"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="L16:L20"/>
+    <mergeCell ref="M16:M20"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="G16:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
